--- a/CashFlow/MOH_cashflow.xlsx
+++ b/CashFlow/MOH_cashflow.xlsx
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-332000000.0</v>
+        <v>-325000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-606000000.0</v>
@@ -3688,7 +3688,7 @@
         <v>-499000000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-499000000.0</v>
+        <v>-506000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>-36000000.0</v>
